--- a/taofen/test/examples/实验记录/dnn实验记录.xlsx
+++ b/taofen/test/examples/实验记录/dnn实验记录.xlsx
@@ -4,25 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19711" windowHeight="15717"/>
+    <workbookView windowWidth="28800" windowHeight="12020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -95,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -725,9 +712,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -742,6 +726,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1082,18 +1069,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.5045871559633" customWidth="1"/>
-    <col min="2" max="2" width="10.7522935779817" customWidth="1"/>
+    <col min="1" max="1" width="12.5089285714286" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12.2477064220183" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1103,7 +1090,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -1120,7 +1107,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>45810</v>
       </c>
       <c r="B3" s="1">
@@ -1129,7 +1116,7 @@
       <c r="C3" s="1">
         <v>0.7796</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.78</v>
       </c>
     </row>
@@ -1156,32 +1143,32 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>45810</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>0.7804</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>0.7791</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>0.7808</v>
       </c>
     </row>
     <row r="10" ht="43" customHeight="1" spans="1:4">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
@@ -1206,68 +1193,68 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>45810</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>0.7776</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>0.7787</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>0.7798</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="A19" s="2">
+        <v>45810</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.7786</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.779</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3">
-        <v>45810</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0.7786</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0.779</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1276,8 +1263,8 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/taofen/test/examples/实验记录/dnn实验记录.xlsx
+++ b/taofen/test/examples/实验记录/dnn实验记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12020"/>
+    <workbookView windowWidth="28800" windowHeight="13160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>DNN + Z-SCORE+HASH_1W + EMB_8DIM</t>
+  </si>
+  <si>
+    <t>DNN + Z-SCORE+HASH_1W + EMB_8DIM + dropout</t>
   </si>
   <si>
     <t>试验日期</t>
@@ -32,6 +35,9 @@
   </si>
   <si>
     <t>DNN + LOG+HASH_1W + EMB_8DIM</t>
+  </si>
+  <si>
+    <t>DNN + Z-SCORE+HASH_1W + EMB_8DIM + [200,200,200]</t>
   </si>
   <si>
     <r>
@@ -1069,21 +1075,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="12.5089285714286" customWidth="1"/>
     <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="10.1428571428571"/>
+    <col min="8" max="8" width="12.9196428571429" customWidth="1"/>
+    <col min="9" max="9" width="20.6696428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1091,22 +1100,40 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2">
         <v>45810</v>
       </c>
@@ -1119,152 +1146,184 @@
       <c r="D3" s="3">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="F3" s="2">
+        <v>45812</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="I6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2">
+        <v>45810</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.7804</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.7791</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.7808</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45812</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" ht="43" customHeight="1" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>45810</v>
       </c>
-      <c r="B9" s="4">
-        <v>0.7804</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.7791</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.7808</v>
-      </c>
-    </row>
-    <row r="10" ht="43" customHeight="1" spans="1:4">
-      <c r="A10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="B12" s="4">
+        <v>0.7776</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.7787</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.7798</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
         <v>45810</v>
       </c>
-      <c r="B14" s="4">
-        <v>0.7776</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.7787</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.7798</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.7786</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.779</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2">
-        <v>45810</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0.7786</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.779</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A8:D8"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
     <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/taofen/test/examples/实验记录/dnn实验记录.xlsx
+++ b/taofen/test/examples/实验记录/dnn实验记录.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13160"/>
+    <workbookView windowWidth="19711" windowHeight="15717"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="16">
   <si>
     <t>DNN + Z-SCORE+HASH_1W + EMB_8DIM</t>
   </si>
@@ -35,9 +48,6 @@
   </si>
   <si>
     <t>DNN + LOG+HASH_1W + EMB_8DIM</t>
-  </si>
-  <si>
-    <t>DNN + Z-SCORE+HASH_1W + EMB_8DIM + [200,200,200]</t>
   </si>
   <si>
     <r>
@@ -84,11 +94,23 @@
   <si>
     <t>——</t>
   </si>
+  <si>
+    <t>DNN + LOG+HASH_1W + EMB_8DIM+【200,200,200】</t>
+  </si>
+  <si>
+    <t>DEEPFM + LOG+HASH_1W + EMB_8DIM+【200,200,200】</t>
+  </si>
+  <si>
+    <t>DEEPFM + LOG+HASH_1W + EMB_8DIM+【256,256,256】+ dropout = 0.1</t>
+  </si>
+  <si>
+    <t>DEEPFM + LOG+HASH_1W + EMB_8DIM+【256,256,256</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -718,6 +740,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -732,9 +757,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -795,6 +817,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1075,21 +1104,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.5089285714286" customWidth="1"/>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="12.5045871559633" customWidth="1"/>
+    <col min="2" max="2" width="10.7522935779817" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="6" max="6" width="10.1428571428571"/>
-    <col min="8" max="8" width="12.9196428571429" customWidth="1"/>
-    <col min="9" max="9" width="20.6696428571429" customWidth="1"/>
+    <col min="4" max="4" width="12.2477064220183" customWidth="1"/>
+    <col min="6" max="6" width="10.1467889908257"/>
+    <col min="8" max="8" width="12.9174311926606" customWidth="1"/>
+    <col min="9" max="9" width="20.6697247706422" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1099,7 +1128,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="7"/>
+      <c r="E1" s="2"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1134,7 +1163,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>45810</v>
       </c>
       <c r="B3" s="1">
@@ -1143,15 +1172,15 @@
       <c r="C3" s="1">
         <v>0.7796</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>0.78</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>45812</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="3"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
@@ -1160,9 +1189,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1180,9 +1207,7 @@
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1194,42 +1219,42 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>45810</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>0.7804</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>0.7791</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>0.7808</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>45812</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="3"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" ht="43" customHeight="1" spans="1:4">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1250,30 +1275,30 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>45810</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <v>0.7776</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>0.7787</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <v>0.7798</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1294,27 +1319,171 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>45810</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.7786</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.779</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="4">
-        <v>0.7786</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.779</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3">
+        <v>45816</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.7806</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.7798</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.7816</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3">
+        <v>45816</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.7802</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.7804</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.7817</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3">
+        <v>45816</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0.7805</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.7807</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0.7819</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" customFormat="1" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:4">
+      <c r="A36" s="3">
+        <v>45816</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0.7807</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0.7815</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0.7824</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="13">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="A5:D5"/>
@@ -1324,6 +1493,10 @@
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A34:D34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
